--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo2</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo2</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +543,10 @@
         <v>4.580553</v>
       </c>
       <c r="I2">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.519140333333333</v>
+        <v>1.834290333333333</v>
       </c>
       <c r="N2">
-        <v>4.557421</v>
+        <v>5.502871</v>
       </c>
       <c r="O2">
-        <v>0.09892575512374291</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="P2">
-        <v>0.0989257551237429</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="Q2">
-        <v>2.319500937090333</v>
+        <v>2.800688029740333</v>
       </c>
       <c r="R2">
-        <v>20.875508433813</v>
+        <v>25.206192267663</v>
       </c>
       <c r="S2">
-        <v>0.09804077639267962</v>
+        <v>0.1177372815936135</v>
       </c>
       <c r="T2">
-        <v>0.09804077639267961</v>
+        <v>0.1177372815936135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +605,10 @@
         <v>4.580553</v>
       </c>
       <c r="I3">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +623,10 @@
         <v>33.849725</v>
       </c>
       <c r="O3">
-        <v>0.7347597701322829</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="P3">
-        <v>0.7347597701322828</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="Q3">
         <v>17.22782882199167</v>
@@ -638,10 +635,10 @@
         <v>155.050459397925</v>
       </c>
       <c r="S3">
-        <v>0.7281866914815852</v>
+        <v>0.7242355134604062</v>
       </c>
       <c r="T3">
-        <v>0.7281866914815851</v>
+        <v>0.7242355134604062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +667,10 @@
         <v>4.580553</v>
       </c>
       <c r="I4">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2312856666666666</v>
+        <v>2.383963333333333</v>
       </c>
       <c r="N4">
-        <v>0.6938569999999999</v>
+        <v>7.15189</v>
       </c>
       <c r="O4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="P4">
-        <v>0.01506122161478935</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="Q4">
-        <v>0.3531387514356666</v>
+        <v>3.639956799463334</v>
       </c>
       <c r="R4">
-        <v>3.178248762921</v>
+        <v>32.75961119517</v>
       </c>
       <c r="S4">
-        <v>0.01492648561225647</v>
+        <v>0.1530190489394624</v>
       </c>
       <c r="T4">
-        <v>0.01492648561225647</v>
+        <v>0.1530190489394624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,412 +729,40 @@
         <v>4.580553</v>
       </c>
       <c r="I5">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9910541119453039</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.268274333333333</v>
+        <v>0.07802466666666667</v>
       </c>
       <c r="N5">
-        <v>6.804822999999999</v>
+        <v>0.234074</v>
       </c>
       <c r="O5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="P5">
-        <v>0.1477090340695787</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="Q5">
-        <v>3.463316934124332</v>
+        <v>0.1191320403246667</v>
       </c>
       <c r="R5">
-        <v>31.169852407119</v>
+        <v>1.072188362922</v>
       </c>
       <c r="S5">
-        <v>0.146387645586125</v>
+        <v>0.005008156006517959</v>
       </c>
       <c r="T5">
-        <v>0.146387645586125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.526851</v>
-      </c>
-      <c r="H6">
-        <v>4.580553</v>
-      </c>
-      <c r="I6">
-        <v>0.9910541119453039</v>
-      </c>
-      <c r="J6">
-        <v>0.9910541119453039</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.05442633333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.163279</v>
-      </c>
-      <c r="O6">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="P6">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="Q6">
-        <v>0.08310090147633332</v>
-      </c>
-      <c r="R6">
-        <v>0.747908113287</v>
-      </c>
-      <c r="S6">
-        <v>0.003512512872657658</v>
-      </c>
-      <c r="T6">
-        <v>0.003512512872657658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.041347</v>
-      </c>
-      <c r="I7">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J7">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.519140333333333</v>
-      </c>
-      <c r="N7">
-        <v>4.557421</v>
-      </c>
-      <c r="O7">
-        <v>0.09892575512374291</v>
-      </c>
-      <c r="P7">
-        <v>0.0989257551237429</v>
-      </c>
-      <c r="Q7">
-        <v>0.02093729845411111</v>
-      </c>
-      <c r="R7">
-        <v>0.188435686087</v>
-      </c>
-      <c r="S7">
-        <v>0.0008849787310632853</v>
-      </c>
-      <c r="T7">
-        <v>0.000884978731063285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.041347</v>
-      </c>
-      <c r="I8">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J8">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>11.28324166666667</v>
-      </c>
-      <c r="N8">
-        <v>33.849725</v>
-      </c>
-      <c r="O8">
-        <v>0.7347597701322829</v>
-      </c>
-      <c r="P8">
-        <v>0.7347597701322828</v>
-      </c>
-      <c r="Q8">
-        <v>0.1555093977305556</v>
-      </c>
-      <c r="R8">
-        <v>1.399584579575</v>
-      </c>
-      <c r="S8">
-        <v>0.006573078650697658</v>
-      </c>
-      <c r="T8">
-        <v>0.006573078650697655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.041347</v>
-      </c>
-      <c r="I9">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J9">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.2312856666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.6938569999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.01506122161478935</v>
-      </c>
-      <c r="P9">
-        <v>0.01506122161478935</v>
-      </c>
-      <c r="Q9">
-        <v>0.003187656153222222</v>
-      </c>
-      <c r="R9">
-        <v>0.028688905379</v>
-      </c>
-      <c r="S9">
-        <v>0.0001347360025328751</v>
-      </c>
-      <c r="T9">
-        <v>0.000134736002532875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.041347</v>
-      </c>
-      <c r="I10">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J10">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.268274333333333</v>
-      </c>
-      <c r="N10">
-        <v>6.804822999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.1477090340695787</v>
-      </c>
-      <c r="P10">
-        <v>0.1477090340695787</v>
-      </c>
-      <c r="Q10">
-        <v>0.03126211295344444</v>
-      </c>
-      <c r="R10">
-        <v>0.281359016581</v>
-      </c>
-      <c r="S10">
-        <v>0.001321388483453747</v>
-      </c>
-      <c r="T10">
-        <v>0.001321388483453746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.01378233333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.041347</v>
-      </c>
-      <c r="I11">
-        <v>0.008945888054696122</v>
-      </c>
-      <c r="J11">
-        <v>0.00894588805469612</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.05442633333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.163279</v>
-      </c>
-      <c r="O11">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="P11">
-        <v>0.003544219059606216</v>
-      </c>
-      <c r="Q11">
-        <v>0.0007501218681111112</v>
-      </c>
-      <c r="R11">
-        <v>0.006751096813</v>
-      </c>
-      <c r="S11">
-        <v>3.170618694855756E-05</v>
-      </c>
-      <c r="T11">
-        <v>3.170618694855756E-05</v>
+        <v>0.005008156006517959</v>
       </c>
     </row>
   </sheetData>
